--- a/xlsx/雷米·马蒂斯_intext.xlsx
+++ b/xlsx/雷米·马蒂斯_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>雷米·马蒂斯</t>
   </si>
@@ -29,7 +29,7 @@
     <t>法国</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_雷米·马蒂斯</t>
+    <t>政策_政策_维基百科_雷米·马蒂斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E6%A1%91%E6%9D%BE</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>法國國家圖書館</t>
+    <t>法国国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>法國維基媒體協會</t>
+    <t>法国维基媒体协会</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/Nouvelles_de_l%27estampe</t>
@@ -89,13 +89,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
   </si>
   <si>
-    <t>法国国家图书馆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E6%A3%AE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>詹森主義</t>
+    <t>詹森主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4</t>
@@ -143,13 +140,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>法語維基百科</t>
+    <t>法语维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E7%88%BE%E6%95%8D%E5%A5%A7%E7%89%B9%E8%BB%8D%E7%94%A8%E7%84%A1%E7%B7%9A%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>皮埃爾敍奧特軍用無線電台</t>
+    <t>皮埃尔敍奥特军用无线电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -179,7 +176,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -197,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ORCID</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
 </sst>
 </file>
@@ -905,7 +902,7 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -931,10 +928,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -960,10 +957,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -989,10 +986,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1018,10 +1015,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1047,10 +1044,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>4</v>
@@ -1076,10 +1073,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1105,10 +1102,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1134,10 +1131,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1163,10 +1160,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1192,10 +1189,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1221,10 +1218,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1250,10 +1247,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1279,10 +1276,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1308,10 +1305,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1337,10 +1334,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -1366,10 +1363,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1395,10 +1392,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1424,10 +1421,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1453,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1482,10 +1479,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1511,10 +1508,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1543,7 +1540,7 @@
         <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
